--- a/public/Inventory-sim-management.xlsx
+++ b/public/Inventory-sim-management.xlsx
@@ -16,64 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>provider</t>
-  </si>
-  <si>
-    <t>dateAdded</t>
-  </si>
-  <si>
-    <t>iccid</t>
-  </si>
-  <si>
-    <t>msisdn</t>
-  </si>
-  <si>
-    <t>eid</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>ratePlan</t>
-  </si>
-  <si>
-    <t>carrierCycleUsage</t>
-  </si>
-  <si>
-    <t>customerCycleUsage</t>
-  </si>
-  <si>
-    <t>customerPool</t>
-  </si>
-  <si>
-    <t>customerRatePlan</t>
-  </si>
-  <si>
-    <t>carrierRatePlan</t>
-  </si>
-  <si>
-    <t>simStatus</t>
-  </si>
-  <si>
-    <t>dateActivated</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>billingAcct</t>
-  </si>
-  <si>
-    <t>foundationsAcct</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
   <si>
     <t>AT&amp;T - POD19</t>
   </si>
@@ -106,6 +49,60 @@
   </si>
   <si>
     <t>e7ba:37d3:4fbb:4de9:cbe1:af7c:1c9d:542c</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>DateAdded</t>
+  </si>
+  <si>
+    <t>ICCID</t>
+  </si>
+  <si>
+    <t>MSSIDN</t>
+  </si>
+  <si>
+    <t>EID</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>RatePlan</t>
+  </si>
+  <si>
+    <t>CarrierCycleUsage</t>
+  </si>
+  <si>
+    <t>CustomerCycleUsage</t>
+  </si>
+  <si>
+    <t>CustomerPool</t>
+  </si>
+  <si>
+    <t>CustomerRatePlan</t>
+  </si>
+  <si>
+    <t>CarrierRatePlan</t>
+  </si>
+  <si>
+    <t>SimStatus</t>
+  </si>
+  <si>
+    <t>DateActivated</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>BillingAcct</t>
+  </si>
+  <si>
+    <t>FoundationsAcct</t>
   </si>
 </sst>
 </file>
@@ -444,382 +441,644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
-    <col min="17" max="17" width="41.5703125" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2">
+        <v>6.51036158883734E+19</v>
+      </c>
+      <c r="D2">
+        <v>460743047031395</v>
+      </c>
+      <c r="E2">
+        <v>2.22127278132678E+19</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+      <c r="J2">
+        <v>0.82</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
+      <c r="Q2">
+        <v>617592390</v>
+      </c>
+      <c r="R2">
+        <v>782311389</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>6.51036158883734E+19</v>
       </c>
-      <c r="E2">
+      <c r="D3">
         <v>460743047031395</v>
       </c>
-      <c r="F2">
+      <c r="E3">
         <v>2.22127278132678E+19</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
         <v>0.1</v>
       </c>
-      <c r="K2">
+      <c r="J3">
         <v>0.82</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2">
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3">
         <v>617592390</v>
       </c>
-      <c r="S2">
+      <c r="R3">
         <v>782311389</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
+      <c r="C4">
         <v>6.51036158883734E+19</v>
       </c>
-      <c r="E3">
+      <c r="D4">
         <v>460743047031395</v>
       </c>
-      <c r="F3">
+      <c r="E4">
         <v>2.22127278132678E+19</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
         <v>0.1</v>
       </c>
-      <c r="K3">
+      <c r="J4">
         <v>0.82</v>
       </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3">
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4">
         <v>617592390</v>
       </c>
-      <c r="S3">
+      <c r="R4">
         <v>782311389</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6.51036158883734E+19</v>
+      </c>
+      <c r="D5">
+        <v>460743047031395</v>
+      </c>
+      <c r="E5">
+        <v>2.22127278132678E+19</v>
+      </c>
+      <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>0.82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>617592390</v>
+      </c>
+      <c r="R5">
+        <v>782311389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>6.51036158883734E+19</v>
       </c>
-      <c r="E4">
+      <c r="D6">
         <v>460743047031395</v>
       </c>
-      <c r="F4">
+      <c r="E6">
         <v>2.22127278132678E+19</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4">
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6">
         <v>0.1</v>
       </c>
-      <c r="K4">
+      <c r="J6">
         <v>0.82</v>
       </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4">
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6">
         <v>617592390</v>
       </c>
-      <c r="S4">
+      <c r="R6">
         <v>782311389</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6.51036158883734E+19</v>
+      </c>
+      <c r="D7">
+        <v>460743047031395</v>
+      </c>
+      <c r="E7">
+        <v>2.22127278132678E+19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>0.82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>617592390</v>
+      </c>
+      <c r="R7">
+        <v>782311389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>6.51036158883734E+19</v>
       </c>
-      <c r="E5">
+      <c r="D8">
         <v>460743047031395</v>
       </c>
-      <c r="F5">
+      <c r="E8">
         <v>2.22127278132678E+19</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5">
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8">
         <v>0.1</v>
       </c>
-      <c r="K5">
+      <c r="J8">
         <v>0.82</v>
       </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5">
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8">
         <v>617592390</v>
       </c>
-      <c r="S5">
+      <c r="R8">
         <v>782311389</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>6.51036158883734E+19</v>
+      </c>
+      <c r="D9">
+        <v>460743047031395</v>
+      </c>
+      <c r="E9">
+        <v>2.22127278132678E+19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0.82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>617592390</v>
+      </c>
+      <c r="R9">
+        <v>782311389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>6.51036158883734E+19</v>
       </c>
-      <c r="E6">
+      <c r="D10">
         <v>460743047031395</v>
       </c>
-      <c r="F6">
+      <c r="E10">
         <v>2.22127278132678E+19</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6">
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
         <v>0.1</v>
       </c>
-      <c r="K6">
+      <c r="J10">
         <v>0.82</v>
       </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6">
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10">
         <v>617592390</v>
       </c>
-      <c r="S6">
+      <c r="R10">
+        <v>782311389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>6.51036158883734E+19</v>
+      </c>
+      <c r="D11">
+        <v>460743047031395</v>
+      </c>
+      <c r="E11">
+        <v>2.22127278132678E+19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>0.82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>617592390</v>
+      </c>
+      <c r="R11">
         <v>782311389</v>
       </c>
     </row>

--- a/public/Inventory-sim-management.xlsx
+++ b/public/Inventory-sim-management.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="32">
   <si>
     <t>AT&amp;T - POD19</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>FoundationsAcct</t>
+  </si>
+  <si>
+    <t>Activated</t>
+  </si>
+  <si>
+    <t>StatusHistory</t>
+  </si>
+  <si>
+    <t>Verizon</t>
   </si>
 </sst>
 </file>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +475,7 @@
     <col min="18" max="18" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -521,8 +530,11 @@
       <c r="R1" t="s">
         <v>28</v>
       </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -578,9 +590,9 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -619,7 +631,7 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
         <v>9</v>
@@ -634,7 +646,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -690,9 +702,9 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -731,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s">
         <v>9</v>
@@ -746,7 +758,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -802,7 +814,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -858,7 +870,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -899,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
         <v>9</v>
@@ -914,7 +926,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -970,9 +982,9 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1026,7 +1038,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>

--- a/public/Inventory-sim-management.xlsx
+++ b/public/Inventory-sim-management.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="34">
   <si>
     <t>AT&amp;T - POD19</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Verizon</t>
+  </si>
+  <si>
+    <t>Marion Towne</t>
+  </si>
+  <si>
+    <t>Curtis Bergstrom</t>
   </si>
 </sst>
 </file>
@@ -452,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -834,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -946,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -1058,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>

--- a/public/Inventory-sim-management.xlsx
+++ b/public/Inventory-sim-management.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Desktop\AMOP UI\AMOP_UI\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D0ABDB-6B7F-4E75-ADE3-A8694BCE5F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,14 +171,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +219,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -282,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,33 +464,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" customWidth="1"/>
-    <col min="16" max="16" width="41.5703125" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" customWidth="1"/>
+    <col min="16" max="16" width="41.5546875" customWidth="1"/>
+    <col min="18" max="18" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -540,7 +549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -596,7 +605,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -652,7 +661,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -687,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
         <v>7</v>
@@ -708,7 +717,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -743,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
         <v>7</v>
@@ -764,7 +773,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -820,7 +829,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -876,7 +885,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -911,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
         <v>7</v>
@@ -932,7 +941,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -988,7 +997,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>782311389</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1106,24 +1115,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/Inventory-sim-management.xlsx
+++ b/public/Inventory-sim-management.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Desktop\AMOP UI\AMOP_UI\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D0ABDB-6B7F-4E75-ADE3-A8694BCE5F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,9 +108,6 @@
     <t>Activated</t>
   </si>
   <si>
-    <t>StatusHistory</t>
-  </si>
-  <si>
     <t>Verizon</t>
   </si>
   <si>
@@ -124,12 +115,15 @@
   </si>
   <si>
     <t>Curtis Bergstrom</t>
+  </si>
+  <si>
+    <t>ActionHistory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,9 +173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +213,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -291,7 +285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,30 +458,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="25.5546875" customWidth="1"/>
-    <col min="16" max="16" width="41.5546875" customWidth="1"/>
-    <col min="18" max="18" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -546,7 +540,7 @@
         <v>28</v>
       </c>
       <c r="S1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -607,7 +601,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -681,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -696,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
         <v>7</v>
@@ -719,7 +713,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -752,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
         <v>7</v>
@@ -849,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -920,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s">
         <v>7</v>
@@ -961,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -999,7 +993,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1073,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -1115,24 +1109,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
